--- a/observations/orbit_plans/mtp094/nomad_mtp094_plan.xlsx
+++ b/observations/orbit_plans/mtp094/nomad_mtp094_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="564">
   <si>
     <t>#orbitType</t>
   </si>
@@ -61,1543 +61,1555 @@
     <t xml:space="preserve">&amp;LST=13.4hrs; &amp;Angle=20; </t>
   </si>
   <si>
+    <t>6SUBD Nom CO #7</t>
+  </si>
+  <si>
+    <t>2025 JUN 07 17:59:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
+  </si>
+  <si>
+    <t>H2O 3SUBD #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 07 19:57:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.4hrs; &amp;Angle=19; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #18</t>
+  </si>
+  <si>
+    <t>2025 JUN 07 21:54:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 07 23:52:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.3hrs; &amp;Angle=19; </t>
+  </si>
+  <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 01:50:56</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 03:48:55</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #13</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 05:46:51</t>
+  </si>
+  <si>
+    <t>CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 07:44:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.3hrs; &amp;Angle=18; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #52</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 09:42:39</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 11:40:37</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #42</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 13:38:36</t>
+  </si>
+  <si>
+    <t>uvisNightLimb</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 15:36:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; </t>
+  </si>
+  <si>
+    <t>2025 JUN 08 17:34:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.2hrs; &amp;Angle=17; </t>
+  </si>
+  <si>
+    <t>6SUBD HCL H20 #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 19:32:24</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 21:30:18</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 HCl #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 08 23:28:14</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 01:26:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.2hrs; &amp;Angle=16; </t>
+  </si>
+  <si>
+    <t>2025 JUN 09 03:24:11</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 05:22:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.1hrs; &amp;Angle=16; </t>
+  </si>
+  <si>
+    <t>2025 JUN 09 07:20:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 09 09:17:55</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 11:15:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.1hrs; &amp;Angle=15; </t>
+  </si>
+  <si>
+    <t>2025 JUN 09 13:13:51</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 15:11:50</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 17:09:47</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 19:07:41</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #14</t>
+  </si>
+  <si>
+    <t>2025 JUN 09 21:05:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.0hrs; &amp;Angle=14; </t>
+  </si>
+  <si>
+    <t>2025 JUN 09 23:03:30</t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 01:01:27</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 02:59:26</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 04:57:24</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 06:55:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.0hrs; &amp;Angle=13; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #34</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 08:53:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.9hrs; &amp;Angle=13; </t>
+  </si>
+  <si>
+    <t>6SUBD DetLim #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 10:51:07</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 12:49:05</t>
+  </si>
+  <si>
+    <t>uvisOnlyLimb</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 14:47:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueDayLimb; </t>
+  </si>
+  <si>
+    <t>2025 JUN 10 16:45:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #5</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 18:42:57</t>
+  </si>
+  <si>
+    <t>Ice H2O 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 20:40:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.9hrs; &amp;Angle=12; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 10 22:38:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.8hrs; &amp;Angle=12; </t>
+  </si>
+  <si>
+    <t>2025 JUN 11 00:36:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #48</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 02:34:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.8hrs; &amp;Angle=11; </t>
+  </si>
+  <si>
+    <t>2025 JUN 11 04:32:36</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 06:30:33</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #54</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 08:28:26</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 10:26:19</t>
+  </si>
+  <si>
+    <t>6SUBD CO #6</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 12:24:16</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 14:22:15</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 16:20:14</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 18:18:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.7hrs; &amp;Angle=10; </t>
+  </si>
+  <si>
+    <t>2025 JUN 11 20:16:04</t>
+  </si>
+  <si>
+    <t>2025 JUN 11 22:13:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.7hrs; &amp;Angle=9; </t>
+  </si>
+  <si>
+    <t>2025 JUN 12 00:11:52</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 02:09:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
+  </si>
+  <si>
+    <t>2025 JUN 12 04:07:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.6hrs; &amp;Angle=9; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #11</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 06:05:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.6hrs; &amp;Angle=8; </t>
+  </si>
+  <si>
+    <t>2025 JUN 12 08:03:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ASCRAEUS MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 12 10:01:33</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 11:59:28</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #25</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 13:57:26</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 15:55:25</t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 17:53:22</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 19:51:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.5hrs; &amp;Angle=7; </t>
+  </si>
+  <si>
+    <t>6SUBD HCL H20 #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 21:49:09</t>
+  </si>
+  <si>
+    <t>2025 JUN 12 23:47:04</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 01:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 13 03:42:58</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 05:40:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #6</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 07:38:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.4hrs; &amp;Angle=6; </t>
+  </si>
+  <si>
+    <t>2025 JUN 13 09:36:46</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 11:34:39</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 13:32:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.4hrs; &amp;Angle=5; </t>
+  </si>
+  <si>
+    <t>Fullscan fast step5 all #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 15:30:35</t>
+  </si>
+  <si>
+    <t>2025 JUN 13 17:28:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.3hrs; &amp;Angle=5; </t>
+  </si>
+  <si>
+    <t>2025 JUN 13 19:26:29</t>
+  </si>
+  <si>
     <t>6SUBD CO2 CO #27</t>
   </si>
   <si>
-    <t>2025 JUN 07 17:59:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
-  </si>
-  <si>
-    <t>H2O 3SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 07 19:57:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.4hrs; &amp;Angle=19; </t>
+    <t>2025 JUN 13 21:24:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.3hrs; &amp;Angle=4; </t>
+  </si>
+  <si>
+    <t>2025 JUN 13 23:22:15</t>
+  </si>
+  <si>
+    <t>2025 JUN 14 01:20:11</t>
+  </si>
+  <si>
+    <t>2025 JUN 14 03:18:08</t>
+  </si>
+  <si>
+    <t>2025 JUN 14 05:16:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.3hrs; &amp;Angle=3; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 14 07:14:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 09:11:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 11:09:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.2hrs; &amp;Angle=3; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 13:07:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 15:05:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 17:03:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 19:01:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=2; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 20:59:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>2025 JUN 14 22:57:26</t>
+  </si>
+  <si>
+    <t>2025 JUN 15 00:55:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=1; </t>
+  </si>
+  <si>
+    <t>2025 JUN 15 02:53:17</t>
+  </si>
+  <si>
+    <t>2025 JUN 15 04:51:15</t>
+  </si>
+  <si>
+    <t>2025 JUN 15 06:49:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>2025 JUN 15 08:47:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO2 #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 15 10:45:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 15 12:42:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.0hrs; &amp;Angle=1; </t>
+  </si>
+  <si>
+    <t>2025 JUN 15 14:40:52</t>
+  </si>
+  <si>
+    <t>2025 JUN 15 16:38:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 15 18:36:48</t>
+  </si>
+  <si>
+    <t>2025 JUN 15 20:34:43</t>
   </si>
   <si>
     <t>6SUBD Nominal #1</t>
   </si>
   <si>
-    <t>2025 JUN 07 21:54:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 07 23:52:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.3hrs; &amp;Angle=19; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #7</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 01:50:56</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 03:48:55</t>
+    <t>2025 JUN 15 22:32:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.9hrs; &amp;Angle=1; </t>
+  </si>
+  <si>
+    <t>2025 JUN 16 00:30:30</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 02:28:25</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 04:26:23</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 06:24:20</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 08:22:16</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 10:20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=2; </t>
+  </si>
+  <si>
+    <t>2025 JUN 16 12:18:02</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 14:15:58</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 16:13:56</t>
+  </si>
+  <si>
+    <t>Ice CO 2SUBD #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 18:11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2025 JUN 16 20:09:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=3; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 16 22:07:45</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 00:05:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=3; </t>
+  </si>
+  <si>
+    <t>2025 JUN 17 02:03:32</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 04:01:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
+  </si>
+  <si>
+    <t>2025 JUN 17 05:59:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=4; </t>
+  </si>
+  <si>
+    <t>2025 JUN 17 07:57:24</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 09:55:19</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #29</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 11:53:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=4; </t>
+  </si>
+  <si>
+    <t>H2O CO 3SUBD #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 13:51:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=5; </t>
+  </si>
+  <si>
+    <t>2025 JUN 17 15:49:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2025 JUN 17 17:47:01</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 19:44:58</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 21:42:52</t>
+  </si>
+  <si>
+    <t>uvisOnlyNightside</t>
+  </si>
+  <si>
+    <t>2025 JUN 17 23:40:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=6; </t>
+  </si>
+  <si>
+    <t>2025 JUN 18 01:38:38</t>
+  </si>
+  <si>
+    <t>2025 JUN 18 03:36:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=6; </t>
+  </si>
+  <si>
+    <t>2025 JUN 18 05:34:31</t>
+  </si>
+  <si>
+    <t>Surface Ice 6SUBD 01</t>
+  </si>
+  <si>
+    <t>2025 JUN 18 07:32:28</t>
+  </si>
+  <si>
+    <t>2025 JUN 18 09:30:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=7; </t>
+  </si>
+  <si>
+    <t>2025 JUN 18 11:28:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 18 13:26:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=7; </t>
+  </si>
+  <si>
+    <t>2025 JUN 18 15:24:05</t>
+  </si>
+  <si>
+    <t>2025 JUN 18 17:22:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=8; </t>
+  </si>
+  <si>
+    <t>2025 JUN 18 19:20:01</t>
+  </si>
+  <si>
+    <t>2025 JUN 18 21:17:57</t>
+  </si>
+  <si>
+    <t>Fullscan fast step4 all #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 18 23:15:50</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 01:13:43</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 03:11:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 19 05:09:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD 01</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 07:07:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.3hrs; &amp;Angle=9; </t>
+  </si>
+  <si>
+    <t>2025 JUN 19 09:05:29</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 11:03:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2025 JUN 19 13:01:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 19 14:59:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=10; </t>
+  </si>
+  <si>
+    <t>2025 JUN 19 16:57:06</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #28</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 18:55:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #3</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 20:53:01</t>
+  </si>
+  <si>
+    <t>2025 JUN 19 22:50:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=11; </t>
+  </si>
+  <si>
+    <t>2025 JUN 20 00:48:47</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 02:46:41</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 04:44:37</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 06:42:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.1hrs; &amp;Angle=12; </t>
+  </si>
+  <si>
+    <t>2025 JUN 20 08:40:31</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 10:38:26</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 12:36:19</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 14:34:11</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 16:32:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=13; </t>
   </si>
   <si>
     <t>Dust H2O 01</t>
   </si>
   <si>
-    <t>2025 JUN 08 05:46:51</t>
-  </si>
-  <si>
-    <t>CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 07:44:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.3hrs; &amp;Angle=18; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #52</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 09:42:39</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 11:40:37</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 13:38:36</t>
-  </si>
-  <si>
-    <t>uvisNightLimb</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 15:36:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; </t>
-  </si>
-  <si>
-    <t>2025 JUN 08 17:34:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.2hrs; &amp;Angle=17; </t>
-  </si>
-  <si>
-    <t>6SUBD HCL H20 #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 19:32:24</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 21:30:18</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 HCl #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 08 23:28:14</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 01:26:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.2hrs; &amp;Angle=16; </t>
-  </si>
-  <si>
-    <t>2025 JUN 09 03:24:11</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 05:22:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.1hrs; &amp;Angle=16; </t>
-  </si>
-  <si>
-    <t>2025 JUN 09 07:20:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 09 09:17:55</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 11:15:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.1hrs; &amp;Angle=15; </t>
-  </si>
-  <si>
-    <t>2025 JUN 09 13:13:51</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 15:11:50</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 17:09:47</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 19:07:41</t>
-  </si>
-  <si>
-    <t>Fullscan fast step5 all #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 09 21:05:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.0hrs; &amp;Angle=14; </t>
-  </si>
-  <si>
-    <t>2025 JUN 09 23:03:30</t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 01:01:27</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 02:59:26</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 04:57:24</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 06:55:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.0hrs; &amp;Angle=13; </t>
-  </si>
-  <si>
-    <t>6SUBD DetLim #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 08:53:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.9hrs; &amp;Angle=13; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #54</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 10:51:07</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 12:49:05</t>
-  </si>
-  <si>
-    <t>uvisOnlyLimb</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 14:47:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueDayLimb; </t>
-  </si>
-  <si>
-    <t>2025 JUN 10 16:45:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 18:42:57</t>
-  </si>
-  <si>
-    <t>Ice H2O 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 10 20:40:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.9hrs; &amp;Angle=12; </t>
+    <t>2025 JUN 20 18:30:06</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 20:28:03</t>
+  </si>
+  <si>
+    <t>2025 JUN 20 22:25:58</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 00:23:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=14; </t>
+  </si>
+  <si>
+    <t>2025 JUN 21 02:21:44</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 04:19:39</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 06:17:36</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 08:15:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=14; </t>
+  </si>
+  <si>
+    <t>2025 JUN 21 10:13:29</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 12:11:23</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 14:09:15</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 16:07:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=15; </t>
+  </si>
+  <si>
+    <t>2025 JUN 21 18:05:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.8hrs; &amp;Angle=16; </t>
+  </si>
+  <si>
+    <t>2025 JUN 21 20:03:05</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 22:01:01</t>
+  </si>
+  <si>
+    <t>2025 JUN 21 23:58:54</t>
+  </si>
+  <si>
+    <t>2025 JUN 22 01:56:47</t>
+  </si>
+  <si>
+    <t>2025 JUN 22 03:54:41</t>
+  </si>
+  <si>
+    <t>2025 JUN 22 05:52:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>2025 JUN 22 07:50:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; </t>
+  </si>
+  <si>
+    <t>2025 JUN 22 09:48:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 22 11:46:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=18; </t>
+  </si>
+  <si>
+    <t>2025 JUN 22 13:44:18</t>
+  </si>
+  <si>
+    <t>2025 JUN 22 15:42:11</t>
+  </si>
+  <si>
+    <t>2025 JUN 22 17:40:08</t>
+  </si>
+  <si>
+    <t>2025 JUN 22 19:38:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=18; </t>
+  </si>
+  <si>
+    <t>2025 JUN 22 21:36:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=19; </t>
+  </si>
+  <si>
+    <t>2025 JUN 22 23:33:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
+  </si>
+  <si>
+    <t>2025 JUN 23 01:31:50</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 03:29:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:PHOENIX; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #23</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 05:27:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=20; </t>
+  </si>
+  <si>
+    <t>2025 JUN 23 07:25:35</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 09:23:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.5hrs; &amp;Angle=20; </t>
+  </si>
+  <si>
+    <t>2025 JUN 23 11:21:28</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 13:19:21</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 15:17:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.5hrs; &amp;Angle=21; </t>
+  </si>
+  <si>
+    <t>2025 JUN 23 17:15:08</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 19:13:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=21; </t>
+  </si>
+  <si>
+    <t>2025 JUN 23 21:11:03</t>
+  </si>
+  <si>
+    <t>2025 JUN 23 23:08:59</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 01:06:52</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 03:04:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=22; </t>
+  </si>
+  <si>
+    <t>2025 JUN 24 05:02:38</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 07:00:35</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 08:58:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.3hrs; &amp;Angle=23; </t>
+  </si>
+  <si>
+    <t>2025 JUN 24 10:56:29</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 12:54:23</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 14:52:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 24 16:50:08</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 18:48:05</t>
+  </si>
+  <si>
+    <t>2025 JUN 24 20:46:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=24; </t>
+  </si>
+  <si>
+    <t>2025 JUN 24 22:44:00</t>
+  </si>
+  <si>
+    <t>LNO Occultation Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 00:41:53</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 02:39:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=25; </t>
+  </si>
+  <si>
+    <t>2025 JUN 25 04:37:38</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 06:35:34</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 08:33:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=25; </t>
+  </si>
+  <si>
+    <t>2025 JUN 25 10:31:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=26; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 Dipole #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 12:29:22</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 14:27:15</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 16:25:06</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 18:23:02</t>
+  </si>
+  <si>
+    <t>2025 JUN 25 20:21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=27; </t>
+  </si>
+  <si>
+    <t>2025 JUN 25 22:18:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=27; </t>
+  </si>
+  <si>
+    <t>2025 JUN 26 00:16:52</t>
   </si>
   <si>
     <t>6SUBD Nominal #51</t>
   </si>
   <si>
-    <t>2025 JUN 10 22:38:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.8hrs; &amp;Angle=12; </t>
-  </si>
-  <si>
-    <t>2025 JUN 11 00:36:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 02:34:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.8hrs; &amp;Angle=11; </t>
-  </si>
-  <si>
-    <t>2025 JUN 11 04:32:36</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 06:30:33</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 08:28:26</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 10:26:19</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #48</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 12:24:16</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 14:22:15</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 16:20:14</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 18:18:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.7hrs; &amp;Angle=10; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #34</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 20:16:04</t>
-  </si>
-  <si>
-    <t>2025 JUN 11 22:13:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.7hrs; &amp;Angle=9; </t>
-  </si>
-  <si>
-    <t>6SUBD HCL H20 #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 00:11:52</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 02:09:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
-  </si>
-  <si>
-    <t>2025 JUN 12 04:07:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.6hrs; &amp;Angle=9; </t>
-  </si>
-  <si>
-    <t>2025 JUN 12 06:05:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.6hrs; &amp;Angle=8; </t>
-  </si>
-  <si>
-    <t>2025 JUN 12 08:03:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ASCRAEUS MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 12 10:01:33</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 11:59:28</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #12</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 13:57:26</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 15:55:25</t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 17:53:22</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO2 #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 19:51:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.5hrs; &amp;Angle=7; </t>
-  </si>
-  <si>
-    <t>2025 JUN 12 21:49:09</t>
-  </si>
-  <si>
-    <t>2025 JUN 12 23:47:04</t>
-  </si>
-  <si>
-    <t>2025 JUN 13 01:45:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 13 03:42:58</t>
-  </si>
-  <si>
-    <t>2025 JUN 13 05:40:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; </t>
-  </si>
-  <si>
-    <t>2025 JUN 13 07:38:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.4hrs; &amp;Angle=6; </t>
-  </si>
-  <si>
-    <t>2025 JUN 13 09:36:46</t>
-  </si>
-  <si>
-    <t>2025 JUN 13 11:34:39</t>
-  </si>
-  <si>
-    <t>2025 JUN 13 13:32:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.4hrs; &amp;Angle=5; </t>
-  </si>
-  <si>
-    <t>2025 JUN 13 15:30:35</t>
-  </si>
-  <si>
-    <t>2025 JUN 13 17:28:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.3hrs; &amp;Angle=5; </t>
-  </si>
-  <si>
-    <t>2025 JUN 13 19:26:29</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #25</t>
-  </si>
-  <si>
-    <t>2025 JUN 13 21:24:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.3hrs; &amp;Angle=4; </t>
-  </si>
-  <si>
-    <t>2025 JUN 13 23:22:15</t>
-  </si>
-  <si>
-    <t>2025 JUN 14 01:20:11</t>
-  </si>
-  <si>
-    <t>2025 JUN 14 03:18:08</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #14</t>
-  </si>
-  <si>
-    <t>2025 JUN 14 05:16:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.3hrs; &amp;Angle=3; </t>
+    <t>2025 JUN 26 02:14:45</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 04:12:37</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 06:10:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=28; </t>
+  </si>
+  <si>
+    <t>2025 JUN 26 08:08:28</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #45</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 10:06:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=28; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O CO #15</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 12:04:21</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 14:02:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=29; </t>
+  </si>
+  <si>
+    <t>2025 JUN 26 16:00:06</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 17:57:59</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 19:55:57</t>
+  </si>
+  <si>
+    <t>2025 JUN 26 21:53:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=30; </t>
+  </si>
+  <si>
+    <t>2025 JUN 26 23:51:50</t>
+  </si>
+  <si>
+    <t>HCL #10</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 01:49:43</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 03:47:35</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 05:45:28</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 07:43:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=31; </t>
+  </si>
+  <si>
+    <t>2025 JUN 27 09:41:20</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 11:39:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.7hrs; &amp;Angle=31; </t>
+  </si>
+  <si>
+    <t>2025 JUN 27 13:37:11</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 15:35:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUN 27 17:32:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.7hrs; &amp;Angle=32; </t>
+  </si>
+  <si>
+    <t>2025 JUN 27 19:30:51</t>
+  </si>
+  <si>
+    <t>2025 JUN 27 21:28:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2025 JUN 27 23:26:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.6hrs; &amp;Angle=32; </t>
+  </si>
+  <si>
+    <t>2025 JUN 28 01:24:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.6hrs; &amp;Angle=33; </t>
+  </si>
+  <si>
+    <t>2025 JUN 28 03:22:31</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CH4 #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 05:20:23</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 07:18:18</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 09:16:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #21</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 11:14:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.5hrs; &amp;Angle=34; </t>
+  </si>
+  <si>
+    <t>2025 JUN 28 13:12:07</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 15:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2025 JUN 28 17:07:51</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #53</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 19:05:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.5hrs; &amp;Angle=35; </t>
+  </si>
+  <si>
+    <t>2025 JUN 28 21:03:42</t>
+  </si>
+  <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2025 JUN 28 23:01:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.4hrs; &amp;Angle=35; </t>
+  </si>
+  <si>
+    <t>2025 JUN 29 00:59:34</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 02:57:27</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 04:55:18</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 06:53:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.4hrs; &amp;Angle=36; </t>
+  </si>
+  <si>
+    <t>2025 JUN 29 08:51:07</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #24</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 10:49:04</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 12:47:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.3hrs; &amp;Angle=37; </t>
+  </si>
+  <si>
+    <t>2025 JUN 29 14:44:54</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 16:42:45</t>
+  </si>
+  <si>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 18:40:38</t>
+  </si>
+  <si>
+    <t>2025 JUN 29 20:38:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.3hrs; &amp;Angle=38; </t>
+  </si>
+  <si>
+    <t>2025 JUN 29 22:36:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=38; </t>
+  </si>
+  <si>
+    <t>2025 JUN 30 00:34:28</t>
+  </si>
+  <si>
+    <t>H2O CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 02:32:22</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 04:30:13</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 06:28:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=39; </t>
+  </si>
+  <si>
+    <t>2025 JUN 30 08:26:00</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 10:23:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
+  </si>
+  <si>
+    <t>2025 JUN 30 12:21:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
+  </si>
+  <si>
+    <t>2025 JUN 30 14:19:48</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 16:17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.1hrs; &amp;Angle=40; </t>
+  </si>
+  <si>
+    <t>2025 JUN 30 18:15:31</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 20:13:26</t>
+  </si>
+  <si>
+    <t>2025 JUN 30 22:11:23</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 00:09:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=41; </t>
+  </si>
+  <si>
+    <t>2025 JUL 01 02:07:14</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 04:05:06</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 06:02:58</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 08:00:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=42; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #11</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 09:58:48</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 11:56:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=42; </t>
+  </si>
+  <si>
+    <t>2025 JUL 01 13:54:40</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 15:52:33</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 17:50:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 01 19:48:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=43; </t>
+  </si>
+  <si>
+    <t>2025 JUL 01 21:46:14</t>
+  </si>
+  <si>
+    <t>2025 JUL 01 23:44:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=43; </t>
+  </si>
+  <si>
+    <t>2025 JUL 02 01:42:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>2025 JUL 02 03:39:59</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 05:37:50</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 07:35:43</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 09:33:38</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 11:31:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=45; </t>
+  </si>
+  <si>
+    <t>2025 JUL 02 13:29:30</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 15:27:24</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 17:25:15</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 19:23:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=46; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #19</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 21:21:01</t>
+  </si>
+  <si>
+    <t>2025 JUL 02 23:18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=46; </t>
+  </si>
+  <si>
+    <t>2025 JUL 03 01:16:55</t>
+  </si>
+  <si>
+    <t>2025 JUL 03 03:14:49</t>
+  </si>
+  <si>
+    <t>2025 JUL 03 05:12:40</t>
+  </si>
+  <si>
+    <t>2025 JUL 03 07:10:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>2025 JUL 03 09:08:26</t>
+  </si>
+  <si>
+    <t>2025 JUL 03 11:06:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2025 JUL 03 13:04:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>2025 JUL 03 15:02:13</t>
   </si>
   <si>
     <t>All Fullscan Slow #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 14 07:14:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 09:11:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 11:09:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.2hrs; &amp;Angle=3; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 13:07:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 15:05:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 17:03:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 19:01:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=2; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 20:59:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>2025 JUN 14 22:57:26</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 00:55:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=1; </t>
-  </si>
-  <si>
-    <t>2025 JUN 15 02:53:17</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 04:51:15</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 06:49:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>2025 JUN 15 08:47:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 15 10:45:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>6SUBD CH4 H2O #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 12:42:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.0hrs; &amp;Angle=1; </t>
-  </si>
-  <si>
-    <t>2025 JUN 15 14:40:52</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 16:38:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 15 18:36:48</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 20:34:43</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O CO #15</t>
-  </si>
-  <si>
-    <t>2025 JUN 15 22:32:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.9hrs; &amp;Angle=1; </t>
-  </si>
-  <si>
-    <t>2025 JUN 16 00:30:30</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #53</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 02:28:25</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 04:26:23</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 06:24:20</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 08:22:16</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 10:20:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=2; </t>
-  </si>
-  <si>
-    <t>2025 JUN 16 12:18:02</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 14:15:58</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 16:13:56</t>
-  </si>
-  <si>
-    <t>Ice CO 2SUBD #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 16 18:11:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2025 JUN 16 20:09:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=3; </t>
-  </si>
-  <si>
-    <t>2025 JUN 16 22:07:45</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 00:05:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=3; </t>
-  </si>
-  <si>
-    <t>2025 JUN 17 02:03:32</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 04:01:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
-  </si>
-  <si>
-    <t>2025 JUN 17 05:59:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=4; </t>
-  </si>
-  <si>
-    <t>2025 JUN 17 07:57:24</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #11</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 09:55:19</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 11:53:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=4; </t>
-  </si>
-  <si>
-    <t>H2O CO 3SUBD #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 13:51:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=5; </t>
-  </si>
-  <si>
-    <t>2025 JUN 17 15:49:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>2025 JUN 17 17:47:01</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 19:44:58</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 21:42:52</t>
-  </si>
-  <si>
-    <t>uvisOnlyNightside</t>
-  </si>
-  <si>
-    <t>2025 JUN 17 23:40:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=6; </t>
-  </si>
-  <si>
-    <t>2025 JUN 18 01:38:38</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 03:36:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=6; </t>
-  </si>
-  <si>
-    <t>2025 JUN 18 05:34:31</t>
-  </si>
-  <si>
-    <t>Surface Ice 6SUBD 01</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 07:32:28</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 09:30:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=7; </t>
-  </si>
-  <si>
-    <t>2025 JUN 18 11:28:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 18 13:26:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=7; </t>
-  </si>
-  <si>
-    <t>2025 JUN 18 15:24:05</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 17:22:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=8; </t>
-  </si>
-  <si>
-    <t>Fullscan fast step4 all #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 19:20:01</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 21:17:57</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 18 23:15:50</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 01:13:43</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 03:11:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 19 05:09:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 07:07:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.3hrs; &amp;Angle=9; </t>
-  </si>
-  <si>
-    <t>2025 JUN 19 09:05:29</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 11:03:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2025 JUN 19 13:01:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 19 14:59:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=10; </t>
-  </si>
-  <si>
-    <t>2025 JUN 19 16:57:06</t>
-  </si>
-  <si>
-    <t>LNO Occultation Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 18:55:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #28</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 20:53:01</t>
-  </si>
-  <si>
-    <t>2025 JUN 19 22:50:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=11; </t>
-  </si>
-  <si>
-    <t>2025 JUN 20 00:48:47</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 02:46:41</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 04:44:37</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 06:42:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.1hrs; &amp;Angle=12; </t>
-  </si>
-  <si>
-    <t>2025 JUN 20 08:40:31</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #6</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 10:38:26</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 12:36:19</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #24</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 14:34:11</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 16:32:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=13; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #23</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 18:30:06</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 20:28:03</t>
-  </si>
-  <si>
-    <t>2025 JUN 20 22:25:58</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 00:23:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=14; </t>
-  </si>
-  <si>
-    <t>2025 JUN 21 02:21:44</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 04:19:39</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 06:17:36</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 08:15:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=14; </t>
-  </si>
-  <si>
-    <t>2025 JUN 21 10:13:29</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 12:11:23</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 14:09:15</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 16:07:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=15; </t>
-  </si>
-  <si>
-    <t>2025 JUN 21 18:05:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.8hrs; &amp;Angle=16; </t>
-  </si>
-  <si>
-    <t>2025 JUN 21 20:03:05</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 22:01:01</t>
-  </si>
-  <si>
-    <t>2025 JUN 21 23:58:54</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 01:56:47</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 03:54:41</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 05:52:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>2025 JUN 22 07:50:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; </t>
-  </si>
-  <si>
-    <t>2025 JUN 22 09:48:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 22 11:46:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=18; </t>
-  </si>
-  <si>
-    <t>2025 JUN 22 13:44:18</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 15:42:11</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 17:40:08</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 19:38:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=18; </t>
-  </si>
-  <si>
-    <t>2025 JUN 22 21:36:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=19; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #45</t>
-  </si>
-  <si>
-    <t>2025 JUN 22 23:33:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
-  </si>
-  <si>
-    <t>2025 JUN 23 01:31:50</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 03:29:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:PHOENIX; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 05:27:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=20; </t>
-  </si>
-  <si>
-    <t>2025 JUN 23 07:25:35</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 09:23:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.5hrs; &amp;Angle=20; </t>
-  </si>
-  <si>
-    <t>2025 JUN 23 11:21:28</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 13:19:21</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 15:17:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.5hrs; &amp;Angle=21; </t>
-  </si>
-  <si>
-    <t>2025 JUN 23 17:15:08</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 19:13:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=21; </t>
-  </si>
-  <si>
-    <t>2025 JUN 23 21:11:03</t>
-  </si>
-  <si>
-    <t>2025 JUN 23 23:08:59</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 01:06:52</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 03:04:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=22; </t>
-  </si>
-  <si>
-    <t>2025 JUN 24 05:02:38</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 07:00:35</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #19</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 08:58:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.3hrs; &amp;Angle=23; </t>
-  </si>
-  <si>
-    <t>2025 JUN 24 10:56:29</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 12:54:23</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 14:52:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 24 16:50:08</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 18:48:05</t>
-  </si>
-  <si>
-    <t>2025 JUN 24 20:46:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=24; </t>
-  </si>
-  <si>
-    <t>2025 JUN 24 22:44:00</t>
-  </si>
-  <si>
-    <t>All Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 00:41:53</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 02:39:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=25; </t>
-  </si>
-  <si>
-    <t>2025 JUN 25 04:37:38</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 06:35:34</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 08:33:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=25; </t>
-  </si>
-  <si>
-    <t>2025 JUN 25 10:31:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=26; </t>
-  </si>
-  <si>
-    <t>2025 JUN 25 12:29:22</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 14:27:15</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 16:25:06</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 18:23:02</t>
-  </si>
-  <si>
-    <t>2025 JUN 25 20:21:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=27; </t>
-  </si>
-  <si>
-    <t>2025 JUN 25 22:18:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=27; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #3</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 00:16:52</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 02:14:45</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 04:12:37</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 06:10:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=28; </t>
-  </si>
-  <si>
-    <t>2025 JUN 26 08:08:28</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 10:06:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=28; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #11</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 12:04:21</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 14:02:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=29; </t>
-  </si>
-  <si>
-    <t>2025 JUN 26 16:00:06</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 17:57:59</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 19:55:57</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 21:53:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=30; </t>
-  </si>
-  <si>
-    <t>CO Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2025 JUN 26 23:51:50</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 01:49:43</t>
-  </si>
-  <si>
-    <t>6SUBD CO #6</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 03:47:35</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 05:45:28</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 07:43:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=31; </t>
-  </si>
-  <si>
-    <t>2025 JUN 27 09:41:20</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 11:39:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.7hrs; &amp;Angle=31; </t>
-  </si>
-  <si>
-    <t>2025 JUN 27 13:37:11</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 15:35:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUN 27 17:32:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.7hrs; &amp;Angle=32; </t>
-  </si>
-  <si>
-    <t>2025 JUN 27 19:30:51</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 21:28:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #18</t>
-  </si>
-  <si>
-    <t>2025 JUN 27 23:26:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.6hrs; &amp;Angle=32; </t>
-  </si>
-  <si>
-    <t>HCL #10</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 01:24:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.6hrs; &amp;Angle=33; </t>
-  </si>
-  <si>
-    <t>2025 JUN 28 03:22:31</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 05:20:23</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 07:18:18</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 09:16:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 28 11:14:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.5hrs; &amp;Angle=34; </t>
-  </si>
-  <si>
-    <t>2025 JUN 28 13:12:07</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 15:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2025 JUN 28 17:07:51</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #12</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 19:05:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.5hrs; &amp;Angle=35; </t>
-  </si>
-  <si>
-    <t>2025 JUN 28 21:03:42</t>
-  </si>
-  <si>
-    <t>Nominal 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2025 JUN 28 23:01:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.4hrs; &amp;Angle=35; </t>
-  </si>
-  <si>
-    <t>2025 JUN 29 00:59:34</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 02:57:27</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 04:55:18</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 06:53:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.4hrs; &amp;Angle=36; </t>
-  </si>
-  <si>
-    <t>2025 JUN 29 08:51:07</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 10:49:04</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 12:47:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.3hrs; &amp;Angle=37; </t>
-  </si>
-  <si>
-    <t>2025 JUN 29 14:44:54</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 16:42:45</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 18:40:38</t>
-  </si>
-  <si>
-    <t>2025 JUN 29 20:38:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.3hrs; &amp;Angle=38; </t>
-  </si>
-  <si>
-    <t>2025 JUN 29 22:36:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=38; </t>
-  </si>
-  <si>
-    <t>2025 JUN 30 00:34:28</t>
-  </si>
-  <si>
-    <t>H2O CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 02:32:22</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 04:30:13</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 06:28:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=39; </t>
-  </si>
-  <si>
-    <t>2025 JUN 30 08:26:00</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 10:23:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
-  </si>
-  <si>
-    <t>2025 JUN 30 12:21:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
-  </si>
-  <si>
-    <t>2025 JUN 30 14:19:48</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 16:17:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.1hrs; &amp;Angle=40; </t>
-  </si>
-  <si>
-    <t>2025 JUN 30 18:15:31</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 20:13:26</t>
-  </si>
-  <si>
-    <t>2025 JUN 30 22:11:23</t>
-  </si>
-  <si>
-    <t>6SUBD CO #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 00:09:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=41; </t>
-  </si>
-  <si>
-    <t>2025 JUL 01 02:07:14</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 04:05:06</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 06:02:58</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 08:00:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=42; </t>
-  </si>
-  <si>
-    <t>2025 JUL 01 09:58:48</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 11:56:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=42; </t>
-  </si>
-  <si>
-    <t>2025 JUL 01 13:54:40</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 15:52:33</t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #5</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 17:50:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 01 19:48:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.9hrs; &amp;Angle=43; </t>
-  </si>
-  <si>
-    <t>2025 JUL 01 21:46:14</t>
-  </si>
-  <si>
-    <t>2025 JUL 01 23:44:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=43; </t>
-  </si>
-  <si>
-    <t>2025 JUL 02 01:42:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>2025 JUL 02 03:39:59</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 05:37:50</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 07:35:43</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 09:33:38</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 11:31:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=45; </t>
-  </si>
-  <si>
-    <t>2025 JUL 02 13:29:30</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 15:27:24</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 17:25:15</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 19:23:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.7hrs; &amp;Angle=46; </t>
-  </si>
-  <si>
-    <t>2025 JUL 02 21:21:01</t>
-  </si>
-  <si>
-    <t>2025 JUL 02 23:18:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=46; </t>
-  </si>
-  <si>
-    <t>2025 JUL 03 01:16:55</t>
-  </si>
-  <si>
-    <t>2025 JUL 03 03:14:49</t>
-  </si>
-  <si>
-    <t>2025 JUL 03 05:12:40</t>
-  </si>
-  <si>
-    <t>2025 JUL 03 07:10:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=47; </t>
-  </si>
-  <si>
-    <t>2025 JUL 03 09:08:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 03 11:06:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2025 JUL 03 13:04:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>2025 JUL 03 15:02:13</t>
   </si>
   <si>
     <t>2025 JUL 03 17:00:05</t>
@@ -2932,10 +2944,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -2944,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M47" t="s">
         <v>23</v>
@@ -2961,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M48" t="s">
         <v>96</v>
@@ -2972,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -2984,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M49" t="s">
         <v>23</v>
@@ -2995,7 +3007,7 @@
         <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M50" t="s">
         <v>23</v>
@@ -3012,7 +3024,7 @@
         <v>39</v>
       </c>
       <c r="L51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M51" t="s">
         <v>41</v>
@@ -3035,10 +3047,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3046,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
@@ -3061,7 +3073,7 @@
         <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3083,19 +3095,19 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" t="s">
         <v>111</v>
-      </c>
-      <c r="F55" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" t="s">
-        <v>112</v>
       </c>
       <c r="M55" t="s">
         <v>110</v>
@@ -3112,10 +3124,10 @@
         <v>8</v>
       </c>
       <c r="L56" t="s">
+        <v>112</v>
+      </c>
+      <c r="M56" t="s">
         <v>113</v>
-      </c>
-      <c r="M56" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3126,10 +3138,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
+        <v>114</v>
+      </c>
+      <c r="M57" t="s">
         <v>115</v>
-      </c>
-      <c r="M57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3137,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
@@ -3265,22 +3277,22 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" t="s">
         <v>128</v>
       </c>
-      <c r="C65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>129</v>
-      </c>
-      <c r="M65" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3288,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="G66" t="s">
         <v>6</v>
@@ -3303,7 +3315,7 @@
         <v>131</v>
       </c>
       <c r="M66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3317,7 +3329,7 @@
         <v>132</v>
       </c>
       <c r="M67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3325,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
         <v>6</v>
@@ -3376,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="G71" t="s">
         <v>6</v>
@@ -3388,10 +3400,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3402,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
+        <v>141</v>
+      </c>
+      <c r="M72" t="s">
         <v>140</v>
-      </c>
-      <c r="M72" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3416,7 +3428,7 @@
         <v>79</v>
       </c>
       <c r="L73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s">
         <v>81</v>
@@ -3430,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3441,10 +3453,10 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
@@ -3453,10 +3465,10 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
+        <v>146</v>
+      </c>
+      <c r="M75" t="s">
         <v>144</v>
-      </c>
-      <c r="M75" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3476,10 +3488,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M76" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3493,10 +3505,10 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M77" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3504,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -3516,10 +3528,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3527,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
         <v>6</v>
@@ -3539,10 +3551,10 @@
         <v>8</v>
       </c>
       <c r="L79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3562,10 +3574,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
+        <v>154</v>
+      </c>
+      <c r="M80" t="s">
         <v>152</v>
-      </c>
-      <c r="M80" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3576,10 +3588,10 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M81" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3587,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -3599,10 +3611,10 @@
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3610,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -3622,10 +3634,10 @@
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M83" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3639,10 +3651,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3653,10 +3665,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3664,10 +3676,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3675,10 +3687,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3689,10 +3701,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3700,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -3712,10 +3724,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3726,10 +3738,10 @@
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3737,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="G91" t="s">
         <v>6</v>
@@ -3749,10 +3761,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3772,10 +3784,10 @@
         <v>8</v>
       </c>
       <c r="L92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3789,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="L93" t="s">
+        <v>178</v>
+      </c>
+      <c r="M93" t="s">
         <v>177</v>
-      </c>
-      <c r="M93" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3812,10 +3824,10 @@
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3826,10 +3838,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3840,10 +3852,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3851,10 +3863,10 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -3863,10 +3875,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M97" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3874,19 +3886,19 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="G98" t="s">
         <v>6</v>
       </c>
       <c r="L98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3900,7 +3912,7 @@
         <v>39</v>
       </c>
       <c r="L99" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M99" t="s">
         <v>41</v>
@@ -3914,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3925,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
@@ -3937,10 +3949,10 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3954,10 +3966,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3965,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
@@ -3977,10 +3989,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3991,10 +4003,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
+        <v>197</v>
+      </c>
+      <c r="M104" t="s">
         <v>196</v>
-      </c>
-      <c r="M104" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4002,10 +4014,10 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G105" t="s">
         <v>6</v>
@@ -4014,10 +4026,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4037,10 +4049,10 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4054,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M107" t="s">
         <v>23</v>
@@ -4068,10 +4080,10 @@
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4079,10 +4091,10 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -4091,10 +4103,10 @@
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4102,7 +4114,7 @@
         <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M110" t="s">
         <v>23</v>
@@ -4119,7 +4131,7 @@
         <v>39</v>
       </c>
       <c r="L111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M111" t="s">
         <v>41</v>
@@ -4133,10 +4145,10 @@
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4153,16 +4165,16 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I113" t="s">
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M113" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4173,10 +4185,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4184,10 +4196,10 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="C115" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -4196,7 +4208,7 @@
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M115" t="s">
         <v>17</v>
@@ -4219,10 +4231,10 @@
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M116" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4233,10 +4245,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M117" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4244,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="F118" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
@@ -4256,10 +4268,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M118" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4270,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M119" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4284,10 +4296,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4295,22 +4307,22 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" t="s">
+        <v>223</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" t="s">
+        <v>8</v>
+      </c>
+      <c r="L121" t="s">
+        <v>224</v>
+      </c>
+      <c r="M121" t="s">
         <v>221</v>
-      </c>
-      <c r="F121" t="s">
-        <v>221</v>
-      </c>
-      <c r="G121" t="s">
-        <v>6</v>
-      </c>
-      <c r="I121" t="s">
-        <v>8</v>
-      </c>
-      <c r="L121" t="s">
-        <v>222</v>
-      </c>
-      <c r="M121" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4318,10 +4330,10 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -4330,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M122" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4341,16 +4353,16 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M123" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4370,10 +4382,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M124" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4384,10 +4396,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
+        <v>233</v>
+      </c>
+      <c r="M125" t="s">
         <v>230</v>
-      </c>
-      <c r="M125" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4407,10 +4419,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M126" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4418,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="F127" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="G127" t="s">
         <v>6</v>
@@ -4430,10 +4442,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M127" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4444,13 +4456,13 @@
         <v>8</v>
       </c>
       <c r="K128" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L128" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M128" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4461,7 +4473,7 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M129" t="s">
         <v>23</v>
@@ -4475,10 +4487,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M130" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4486,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
         <v>6</v>
@@ -4498,10 +4510,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M131" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4509,13 +4521,13 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I132" t="s">
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M132" t="s">
         <v>23</v>
@@ -4526,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>6</v>
@@ -4538,10 +4550,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M133" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4549,10 +4561,10 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C134" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -4561,10 +4573,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M134" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4575,10 +4587,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M135" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4586,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -4598,10 +4610,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M136" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4612,10 +4624,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M137" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4623,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -4635,10 +4647,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M138" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4649,10 +4661,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
+        <v>255</v>
+      </c>
+      <c r="M139" t="s">
         <v>253</v>
-      </c>
-      <c r="M139" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4660,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C140" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -4672,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M140" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4683,19 +4695,19 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F141" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
       </c>
       <c r="L141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M141" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4703,10 +4715,10 @@
         <v>14</v>
       </c>
       <c r="L142" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4717,10 +4729,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4728,16 +4740,16 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I144" t="s">
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M144" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4745,10 +4757,10 @@
         <v>14</v>
       </c>
       <c r="L145" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M145" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4756,10 +4768,10 @@
         <v>14</v>
       </c>
       <c r="L146" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M146" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4770,10 +4782,10 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M147" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4781,10 +4793,10 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="F148" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="G148" t="s">
         <v>6</v>
@@ -4793,10 +4805,10 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M148" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4807,10 +4819,10 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4818,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G150" t="s">
         <v>6</v>
@@ -4830,10 +4842,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M150" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4841,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -4853,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M151" t="s">
         <v>83</v>
@@ -4870,10 +4882,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M152" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4881,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -4893,10 +4905,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M153" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4907,10 +4919,10 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
+        <v>282</v>
+      </c>
+      <c r="M154" t="s">
         <v>280</v>
-      </c>
-      <c r="M154" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4930,7 +4942,7 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M155" t="s">
         <v>93</v>
@@ -4941,10 +4953,10 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="F156" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -4953,10 +4965,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M156" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4967,10 +4979,10 @@
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M157" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4978,22 +4990,22 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
+        <v>73</v>
+      </c>
+      <c r="F158" t="s">
+        <v>73</v>
+      </c>
+      <c r="G158" t="s">
+        <v>6</v>
+      </c>
+      <c r="I158" t="s">
+        <v>8</v>
+      </c>
+      <c r="L158" t="s">
+        <v>287</v>
+      </c>
+      <c r="M158" t="s">
         <v>285</v>
-      </c>
-      <c r="F158" t="s">
-        <v>285</v>
-      </c>
-      <c r="G158" t="s">
-        <v>6</v>
-      </c>
-      <c r="I158" t="s">
-        <v>8</v>
-      </c>
-      <c r="L158" t="s">
-        <v>286</v>
-      </c>
-      <c r="M158" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -5004,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M159" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -5015,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="F160" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="G160" t="s">
         <v>6</v>
@@ -5030,7 +5042,7 @@
         <v>289</v>
       </c>
       <c r="M160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -5098,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I164" t="s">
         <v>8</v>
@@ -5115,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C165" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -5152,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -5181,7 +5193,7 @@
         <v>300</v>
       </c>
       <c r="M168" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -5243,7 +5255,7 @@
         <v>305</v>
       </c>
       <c r="M172" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5541,22 +5553,22 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
+        <v>194</v>
+      </c>
+      <c r="F189" t="s">
+        <v>194</v>
+      </c>
+      <c r="G189" t="s">
+        <v>6</v>
+      </c>
+      <c r="I189" t="s">
+        <v>8</v>
+      </c>
+      <c r="L189" t="s">
         <v>330</v>
       </c>
-      <c r="F189" t="s">
-        <v>330</v>
-      </c>
-      <c r="G189" t="s">
-        <v>6</v>
-      </c>
-      <c r="I189" t="s">
-        <v>8</v>
-      </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>331</v>
-      </c>
-      <c r="M189" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -5567,7 +5579,7 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M190" t="s">
         <v>329</v>
@@ -5578,10 +5590,10 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
         <v>6</v>
@@ -5590,10 +5602,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
+        <v>333</v>
+      </c>
+      <c r="M191" t="s">
         <v>334</v>
-      </c>
-      <c r="M191" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -5601,19 +5613,19 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
+        <v>335</v>
+      </c>
+      <c r="C192" t="s">
+        <v>335</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="L192" t="s">
         <v>336</v>
       </c>
-      <c r="C192" t="s">
-        <v>336</v>
-      </c>
-      <c r="D192" t="s">
-        <v>3</v>
-      </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
         <v>337</v>
-      </c>
-      <c r="M192" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -5624,7 +5636,7 @@
         <v>39</v>
       </c>
       <c r="L193" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M193" t="s">
         <v>41</v>
@@ -5638,10 +5650,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
+        <v>339</v>
+      </c>
+      <c r="M194" t="s">
         <v>340</v>
-      </c>
-      <c r="M194" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -5652,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M195" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -5663,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="C196" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -5678,7 +5690,7 @@
         <v>343</v>
       </c>
       <c r="M196" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -5731,19 +5743,19 @@
         <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="F200" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="G200" t="s">
         <v>6</v>
@@ -5755,7 +5767,7 @@
         <v>349</v>
       </c>
       <c r="M200" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -5783,7 +5795,7 @@
         <v>351</v>
       </c>
       <c r="M202" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -5794,7 +5806,7 @@
         <v>8</v>
       </c>
       <c r="K203" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L203" t="s">
         <v>352</v>
@@ -5833,31 +5845,31 @@
         <v>1</v>
       </c>
       <c r="B206" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="E206" t="s">
+        <v>277</v>
+      </c>
+      <c r="F206" t="s">
+        <v>277</v>
+      </c>
+      <c r="G206" t="s">
+        <v>6</v>
+      </c>
+      <c r="I206" t="s">
+        <v>8</v>
+      </c>
+      <c r="L206" t="s">
         <v>356</v>
       </c>
-      <c r="F206" t="s">
-        <v>356</v>
-      </c>
-      <c r="G206" t="s">
-        <v>6</v>
-      </c>
-      <c r="I206" t="s">
-        <v>8</v>
-      </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>357</v>
-      </c>
-      <c r="M206" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -5868,10 +5880,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -5879,19 +5891,19 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="G208" t="s">
         <v>6</v>
@@ -5900,10 +5912,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M208" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -5911,10 +5923,10 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -5923,10 +5935,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
+        <v>360</v>
+      </c>
+      <c r="M209" t="s">
         <v>361</v>
-      </c>
-      <c r="M209" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -5934,10 +5946,10 @@
         <v>14</v>
       </c>
       <c r="L210" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -5951,7 +5963,7 @@
         <v>39</v>
       </c>
       <c r="L211" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M211" t="s">
         <v>41</v>
@@ -5962,19 +5974,19 @@
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="C212" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="F212" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="G212" t="s">
         <v>6</v>
@@ -5983,10 +5995,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
+        <v>364</v>
+      </c>
+      <c r="M212" t="s">
         <v>365</v>
-      </c>
-      <c r="M212" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -6000,10 +6012,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M213" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -6011,31 +6023,31 @@
         <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C214" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="E214" t="s">
+        <v>367</v>
+      </c>
+      <c r="F214" t="s">
+        <v>367</v>
+      </c>
+      <c r="G214" t="s">
+        <v>6</v>
+      </c>
+      <c r="I214" t="s">
+        <v>8</v>
+      </c>
+      <c r="L214" t="s">
         <v>368</v>
       </c>
-      <c r="F214" t="s">
-        <v>368</v>
-      </c>
-      <c r="G214" t="s">
-        <v>6</v>
-      </c>
-      <c r="I214" t="s">
-        <v>8</v>
-      </c>
-      <c r="L214" t="s">
-        <v>369</v>
-      </c>
       <c r="M214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -6046,10 +6058,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
+        <v>369</v>
+      </c>
+      <c r="M215" t="s">
         <v>370</v>
-      </c>
-      <c r="M215" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -6057,19 +6069,19 @@
         <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C216" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
         <v>6</v>
@@ -6078,10 +6090,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M216" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -6092,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="L217" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M217" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -6103,19 +6115,19 @@
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="C218" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
       <c r="G218" t="s">
         <v>6</v>
@@ -6124,10 +6136,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
+        <v>373</v>
+      </c>
+      <c r="M218" t="s">
         <v>374</v>
-      </c>
-      <c r="M218" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -6138,10 +6150,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
+        <v>375</v>
+      </c>
+      <c r="M219" t="s">
         <v>376</v>
-      </c>
-      <c r="M219" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -6149,19 +6161,19 @@
         <v>1</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="C220" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="G220" t="s">
         <v>6</v>
@@ -6187,7 +6199,7 @@
         <v>379</v>
       </c>
       <c r="M221" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -6195,19 +6207,19 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C222" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="G222" t="s">
         <v>6</v>
@@ -6219,7 +6231,7 @@
         <v>380</v>
       </c>
       <c r="M222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -6241,19 +6253,19 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="F224" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="G224" t="s">
         <v>6</v>
@@ -6290,28 +6302,28 @@
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
       </c>
       <c r="E226" t="s">
+        <v>274</v>
+      </c>
+      <c r="F226" t="s">
+        <v>274</v>
+      </c>
+      <c r="G226" t="s">
+        <v>6</v>
+      </c>
+      <c r="I226" t="s">
+        <v>8</v>
+      </c>
+      <c r="L226" t="s">
         <v>386</v>
-      </c>
-      <c r="F226" t="s">
-        <v>386</v>
-      </c>
-      <c r="G226" t="s">
-        <v>6</v>
-      </c>
-      <c r="I226" t="s">
-        <v>8</v>
-      </c>
-      <c r="L226" t="s">
-        <v>387</v>
       </c>
       <c r="M226" t="s">
         <v>385</v>
@@ -6322,19 +6334,19 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="C227" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
         <v>6</v>
@@ -6388,7 +6400,7 @@
         <v>392</v>
       </c>
       <c r="M230" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -6396,19 +6408,19 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="C231" t="s">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="G231" t="s">
         <v>6</v>
@@ -6417,10 +6429,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M231" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -6428,22 +6440,22 @@
         <v>1</v>
       </c>
       <c r="B232" t="s">
+        <v>396</v>
+      </c>
+      <c r="C232" t="s">
+        <v>396</v>
+      </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
+      <c r="I232" t="s">
+        <v>8</v>
+      </c>
+      <c r="L232" t="s">
+        <v>397</v>
+      </c>
+      <c r="M232" t="s">
         <v>395</v>
-      </c>
-      <c r="C232" t="s">
-        <v>395</v>
-      </c>
-      <c r="D232" t="s">
-        <v>3</v>
-      </c>
-      <c r="I232" t="s">
-        <v>8</v>
-      </c>
-      <c r="L232" t="s">
-        <v>396</v>
-      </c>
-      <c r="M232" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -6454,10 +6466,10 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M233" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -6477,10 +6489,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
+        <v>400</v>
+      </c>
+      <c r="M234" t="s">
         <v>399</v>
-      </c>
-      <c r="M234" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -6491,10 +6503,10 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M235" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -6505,10 +6517,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M236" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -6516,19 +6528,19 @@
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="C237" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="G237" t="s">
         <v>6</v>
@@ -6537,10 +6549,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M237" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -6548,19 +6560,19 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="C238" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>404</v>
+        <v>15</v>
       </c>
       <c r="F238" t="s">
-        <v>404</v>
+        <v>15</v>
       </c>
       <c r="G238" t="s">
         <v>6</v>
@@ -6572,7 +6584,7 @@
         <v>405</v>
       </c>
       <c r="M238" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -6580,19 +6592,19 @@
         <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>197</v>
+        <v>406</v>
       </c>
       <c r="C239" t="s">
-        <v>197</v>
+        <v>406</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="G239" t="s">
         <v>6</v>
@@ -6601,10 +6613,10 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M239" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -6612,19 +6624,19 @@
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="C240" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G240" t="s">
         <v>6</v>
@@ -6636,7 +6648,7 @@
         <v>408</v>
       </c>
       <c r="M240" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -6653,7 +6665,7 @@
         <v>409</v>
       </c>
       <c r="M241" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -6675,19 +6687,19 @@
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>47</v>
+        <v>393</v>
       </c>
       <c r="C243" t="s">
-        <v>47</v>
+        <v>393</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="F243" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="G243" t="s">
         <v>6</v>
@@ -6707,10 +6719,10 @@
         <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="C244" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -6744,10 +6756,10 @@
         <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>34</v>
+        <v>416</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>416</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -6756,10 +6768,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M246" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -6770,10 +6782,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M247" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -6781,19 +6793,19 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C248" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F248" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G248" t="s">
         <v>6</v>
@@ -6802,10 +6814,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
+        <v>421</v>
+      </c>
+      <c r="M248" t="s">
         <v>420</v>
-      </c>
-      <c r="M248" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -6816,10 +6828,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M249" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -6827,19 +6839,19 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="C250" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="F250" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="G250" t="s">
         <v>6</v>
@@ -6859,31 +6871,31 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
+        <v>198</v>
+      </c>
+      <c r="C251" t="s">
+        <v>198</v>
+      </c>
+      <c r="D251" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" t="s">
+        <v>335</v>
+      </c>
+      <c r="F251" t="s">
+        <v>335</v>
+      </c>
+      <c r="G251" t="s">
+        <v>6</v>
+      </c>
+      <c r="I251" t="s">
+        <v>8</v>
+      </c>
+      <c r="L251" t="s">
         <v>426</v>
       </c>
-      <c r="C251" t="s">
-        <v>426</v>
-      </c>
-      <c r="D251" t="s">
-        <v>3</v>
-      </c>
-      <c r="E251" t="s">
-        <v>275</v>
-      </c>
-      <c r="F251" t="s">
-        <v>275</v>
-      </c>
-      <c r="G251" t="s">
-        <v>6</v>
-      </c>
-      <c r="I251" t="s">
-        <v>8</v>
-      </c>
-      <c r="L251" t="s">
+      <c r="M251" t="s">
         <v>427</v>
-      </c>
-      <c r="M251" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -6894,10 +6906,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M252" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -6905,19 +6917,19 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>429</v>
       </c>
       <c r="C253" t="s">
-        <v>288</v>
+        <v>429</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G253" t="s">
         <v>6</v>
@@ -6929,7 +6941,7 @@
         <v>430</v>
       </c>
       <c r="M253" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -6940,7 +6952,7 @@
         <v>431</v>
       </c>
       <c r="M254" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -6959,10 +6971,10 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="C256" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -6971,10 +6983,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M256" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -6982,10 +6994,10 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M257" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -6993,10 +7005,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M258" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -7007,10 +7019,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M259" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -7018,19 +7030,19 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C260" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F260" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G260" t="s">
         <v>6</v>
@@ -7039,10 +7051,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M260" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -7050,19 +7062,19 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="C261" t="s">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F261" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="G261" t="s">
         <v>6</v>
@@ -7071,10 +7083,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
+        <v>444</v>
+      </c>
+      <c r="M261" t="s">
         <v>443</v>
-      </c>
-      <c r="M261" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -7082,16 +7094,16 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I262" t="s">
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M262" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -7099,19 +7111,19 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="C263" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>101</v>
+        <v>387</v>
       </c>
       <c r="F263" t="s">
-        <v>101</v>
+        <v>387</v>
       </c>
       <c r="G263" t="s">
         <v>6</v>
@@ -7120,7 +7132,7 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M263" t="s">
         <v>83</v>
@@ -7131,19 +7143,19 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>148</v>
+        <v>434</v>
       </c>
       <c r="C264" t="s">
-        <v>148</v>
+        <v>434</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F264" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="G264" t="s">
         <v>6</v>
@@ -7152,10 +7164,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M264" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -7166,7 +7178,7 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M265" t="s">
         <v>23</v>
@@ -7177,19 +7189,19 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>426</v>
+        <v>29</v>
       </c>
       <c r="C266" t="s">
-        <v>426</v>
+        <v>29</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="F266" t="s">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="G266" t="s">
         <v>6</v>
@@ -7198,10 +7210,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M266" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -7212,10 +7224,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
+        <v>453</v>
+      </c>
+      <c r="M267" t="s">
         <v>452</v>
-      </c>
-      <c r="M267" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -7223,19 +7235,19 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C268" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="F268" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="G268" t="s">
         <v>6</v>
@@ -7244,7 +7256,7 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M268" t="s">
         <v>23</v>
@@ -7255,10 +7267,10 @@
         <v>14</v>
       </c>
       <c r="L269" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M269" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -7272,7 +7284,7 @@
         <v>39</v>
       </c>
       <c r="L270" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M270" t="s">
         <v>41</v>
@@ -7283,10 +7295,10 @@
         <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="C271" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -7295,10 +7307,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
+        <v>459</v>
+      </c>
+      <c r="M271" t="s">
         <v>457</v>
-      </c>
-      <c r="M271" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -7306,19 +7318,19 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="C272" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>84</v>
+        <v>387</v>
       </c>
       <c r="F272" t="s">
-        <v>84</v>
+        <v>387</v>
       </c>
       <c r="G272" t="s">
         <v>6</v>
@@ -7327,10 +7339,10 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M272" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -7341,10 +7353,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M273" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -7352,19 +7364,19 @@
         <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="C274" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
       </c>
       <c r="E274" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="F274" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="G274" t="s">
         <v>6</v>
@@ -7373,10 +7385,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M274" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -7387,10 +7399,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M275" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -7398,16 +7410,16 @@
         <v>3</v>
       </c>
       <c r="H276" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I276" t="s">
         <v>8</v>
       </c>
       <c r="L276" t="s">
+        <v>468</v>
+      </c>
+      <c r="M276" t="s">
         <v>465</v>
-      </c>
-      <c r="M276" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -7415,19 +7427,19 @@
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C277" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F277" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="G277" t="s">
         <v>6</v>
@@ -7436,10 +7448,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M277" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -7447,10 +7459,10 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C278" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -7468,10 +7480,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M278" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -7479,19 +7491,19 @@
         <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="C279" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="G279" t="s">
         <v>6</v>
@@ -7500,10 +7512,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M279" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -7514,10 +7526,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M280" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -7525,19 +7537,19 @@
         <v>1</v>
       </c>
       <c r="B281" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C281" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
       </c>
       <c r="L281" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M281" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -7551,7 +7563,7 @@
         <v>39</v>
       </c>
       <c r="L282" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M282" t="s">
         <v>41</v>
@@ -7565,10 +7577,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M283" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -7576,10 +7588,10 @@
         <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C284" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -7588,10 +7600,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M284" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -7602,10 +7614,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M285" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -7613,19 +7625,19 @@
         <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C286" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
       </c>
       <c r="E286" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F286" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G286" t="s">
         <v>6</v>
@@ -7634,10 +7646,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
+        <v>482</v>
+      </c>
+      <c r="M286" t="s">
         <v>479</v>
-      </c>
-      <c r="M286" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -7645,19 +7657,19 @@
         <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C287" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
       </c>
       <c r="E287" t="s">
-        <v>480</v>
+        <v>94</v>
       </c>
       <c r="F287" t="s">
-        <v>480</v>
+        <v>94</v>
       </c>
       <c r="G287" t="s">
         <v>6</v>
@@ -7666,10 +7678,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M287" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -7680,10 +7692,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M288" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -7697,10 +7709,10 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M289" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -7711,10 +7723,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M290" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -7725,10 +7737,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M291" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -7736,19 +7748,19 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="C292" t="s">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="F292" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="G292" t="s">
         <v>6</v>
@@ -7757,10 +7769,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M292" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -7768,19 +7780,19 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>154</v>
+        <v>393</v>
       </c>
       <c r="C293" t="s">
-        <v>154</v>
+        <v>393</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>292</v>
+        <v>434</v>
       </c>
       <c r="F293" t="s">
-        <v>292</v>
+        <v>434</v>
       </c>
       <c r="G293" t="s">
         <v>6</v>
@@ -7789,10 +7801,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M293" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -7803,10 +7815,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M294" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -7817,10 +7829,10 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M295" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -7828,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>493</v>
+        <v>37</v>
       </c>
       <c r="C296" t="s">
-        <v>493</v>
+        <v>37</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -7840,10 +7852,10 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M296" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -7854,10 +7866,10 @@
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M297" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -7865,19 +7877,19 @@
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="C298" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F298" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G298" t="s">
         <v>6</v>
@@ -7886,10 +7898,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M298" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -7900,10 +7912,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M299" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -7917,10 +7929,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M300" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -7928,19 +7940,19 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C301" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F301" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G301" t="s">
         <v>6</v>
@@ -7949,10 +7961,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M301" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -7960,20 +7972,20 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" t="s">
         <v>47</v>
       </c>
-      <c r="C302" t="s">
+      <c r="F302" t="s">
         <v>47</v>
       </c>
-      <c r="D302" t="s">
-        <v>3</v>
-      </c>
-      <c r="E302" t="s">
-        <v>111</v>
-      </c>
-      <c r="F302" t="s">
-        <v>111</v>
-      </c>
       <c r="G302" t="s">
         <v>6</v>
       </c>
@@ -7981,10 +7993,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
+        <v>506</v>
+      </c>
+      <c r="M302" t="s">
         <v>504</v>
-      </c>
-      <c r="M302" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -7995,10 +8007,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M303" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -8006,19 +8018,19 @@
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="C304" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="F304" t="s">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="G304" t="s">
         <v>6</v>
@@ -8027,10 +8039,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M304" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -8041,10 +8053,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M305" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -8055,10 +8067,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M306" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -8066,19 +8078,19 @@
         <v>1</v>
       </c>
       <c r="B307" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C307" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
       </c>
       <c r="E307" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="F307" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="G307" t="s">
         <v>6</v>
@@ -8087,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M307" t="s">
         <v>23</v>
@@ -8098,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C308" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -8110,10 +8122,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M308" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -8124,10 +8136,10 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M309" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -8135,19 +8147,19 @@
         <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>34</v>
+        <v>516</v>
       </c>
       <c r="C310" t="s">
-        <v>34</v>
+        <v>516</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F310" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G310" t="s">
         <v>6</v>
@@ -8156,10 +8168,10 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M310" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -8170,10 +8182,10 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M311" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -8184,10 +8196,10 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M312" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -8195,19 +8207,19 @@
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="C313" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="F313" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="G313" t="s">
         <v>6</v>
@@ -8216,10 +8228,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M313" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -8233,10 +8245,10 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M314" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -8247,10 +8259,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M315" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -8258,19 +8270,19 @@
         <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>47</v>
+        <v>454</v>
       </c>
       <c r="C316" t="s">
-        <v>47</v>
+        <v>454</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
       </c>
       <c r="E316" t="s">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="F316" t="s">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="G316" t="s">
         <v>6</v>
@@ -8279,10 +8291,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M316" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -8290,10 +8302,10 @@
         <v>14</v>
       </c>
       <c r="L317" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M317" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -8304,10 +8316,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M318" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -8318,10 +8330,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M319" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -8329,19 +8341,19 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>251</v>
+        <v>531</v>
       </c>
       <c r="C320" t="s">
-        <v>251</v>
+        <v>531</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="F320" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="G320" t="s">
         <v>6</v>
@@ -8350,10 +8362,10 @@
         <v>8</v>
       </c>
       <c r="L320" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M320" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -8361,16 +8373,16 @@
         <v>3</v>
       </c>
       <c r="H321" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I321" t="s">
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M321" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -8378,19 +8390,19 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="C322" t="s">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F322" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G322" t="s">
         <v>6</v>
@@ -8399,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M322" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -8410,19 +8422,19 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C323" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F323" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G323" t="s">
         <v>6</v>
@@ -8431,10 +8443,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M323" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -8442,10 +8454,10 @@
         <v>14</v>
       </c>
       <c r="L324" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M324" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -8456,10 +8468,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M325" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -8488,7 +8500,7 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M326" t="s">
         <v>23</v>
@@ -8502,10 +8514,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M327" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -8516,10 +8528,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M328" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -8527,10 +8539,10 @@
         <v>14</v>
       </c>
       <c r="L329" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M329" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -8541,10 +8553,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M330" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -8552,10 +8564,10 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="C331" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -8564,10 +8576,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M331" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -8575,19 +8587,19 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>493</v>
+        <v>116</v>
       </c>
       <c r="C332" t="s">
-        <v>493</v>
+        <v>116</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
       </c>
       <c r="E332" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="F332" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="G332" t="s">
         <v>6</v>
@@ -8596,10 +8608,10 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M332" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -8610,10 +8622,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M333" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -8621,19 +8633,19 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="C334" t="s">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F334" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="G334" t="s">
         <v>6</v>
@@ -8642,7 +8654,7 @@
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M334" t="s">
         <v>23</v>
@@ -8656,10 +8668,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M335" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -8670,10 +8682,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M336" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -8681,19 +8693,19 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>123</v>
+        <v>441</v>
       </c>
       <c r="F337" t="s">
-        <v>123</v>
+        <v>441</v>
       </c>
       <c r="G337" t="s">
         <v>6</v>
@@ -8702,7 +8714,7 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M337" t="s">
         <v>23</v>
@@ -8719,10 +8731,10 @@
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M338" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -8730,19 +8742,19 @@
         <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="C339" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
       </c>
       <c r="E339" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F339" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G339" t="s">
         <v>6</v>
@@ -8751,10 +8763,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M339" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -8762,19 +8774,19 @@
         <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="C340" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
       </c>
       <c r="E340" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F340" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="G340" t="s">
         <v>6</v>
@@ -8783,10 +8795,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M340" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -8797,10 +8809,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M341" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -8811,10 +8823,10 @@
         <v>8</v>
       </c>
       <c r="L342" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M342" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
